--- a/tests/Gauges/tLists3_options.xlsx
+++ b/tests/Gauges/tLists3_options.xlsx
@@ -308,54 +308,48 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="28">
+  <x:cellStyleXfs count="27">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <x:xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="0" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="0" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="11" fillId="2" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -376,23 +370,26 @@
     <x:xf numFmtId="4" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="4" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="4" fontId="8" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="4" fontId="2" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="0" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="4" fontId="8" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="4" fontId="2" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="4" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="4" fontId="8" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="0" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="84">
+  <x:cellXfs count="82">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -504,68 +501,52 @@
     <x:xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="0" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="2" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="0" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="2" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="0" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -628,19 +609,7 @@
       <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="4" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="0" hidden="0"/>
     </x:xf>
@@ -648,8 +617,28 @@
       <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="4" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="0" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -659,10 +648,6 @@
   <x:dxfs count="1">
     <x:dxf>
       <x:font>
-        <x:b val="0"/>
-        <x:i val="0"/>
-        <x:condense val="0"/>
-        <x:extend val="0"/>
         <x:color indexed="30"/>
       </x:font>
     </x:dxf>
@@ -747,11 +732,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
+      <xdr:colOff>373380</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1895475" cy="609600"/>
+    <xdr:ext cx="1897380" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="1" name="Рисунок 2"/>
@@ -768,7 +753,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="1895475" cy="609600"/>
+          <a:ext cx="1897380" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
       </xdr:spPr>
@@ -1140,488 +1125,441 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="11.25"/>
   <x:cols>
-    <x:col min="1" max="1" width="9.140625" style="47" customWidth="1"/>
-    <x:col min="2" max="2" width="10.825425" style="47" customWidth="1"/>
-    <x:col min="3" max="4" width="10.995425" style="47" customWidth="1"/>
-    <x:col min="5" max="5" width="16.070625" style="47" customWidth="1"/>
-    <x:col min="6" max="6" width="8.625425" style="47" customWidth="1"/>
-    <x:col min="7" max="7" width="10.565425" style="47" customWidth="1"/>
-    <x:col min="8" max="8" width="8.285425" style="47" customWidth="1"/>
-    <x:col min="9" max="9" width="7.185425" style="47" customWidth="1"/>
-    <x:col min="10" max="10" width="9.805425" style="47" customWidth="1"/>
+    <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="12.385425" style="0" customWidth="1"/>
+    <x:col min="3" max="4" width="12.605425" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="19.630625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="9.635425" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="12.075425" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="10.310625" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="7.835425" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="11.115425" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:10" customFormat="1" ht="51" customHeight="1">
-      <x:c r="A1" s="48" t="s"/>
-      <x:c r="B1" s="52" t="s">
+      <x:c r="B1" s="47" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C1" s="53" t="s"/>
-      <x:c r="D1" s="53" t="s"/>
-      <x:c r="E1" s="53" t="s"/>
-      <x:c r="F1" s="53" t="s"/>
-      <x:c r="G1" s="53" t="s"/>
-      <x:c r="H1" s="53" t="s"/>
-      <x:c r="I1" s="53" t="s"/>
-      <x:c r="J1" s="53" t="s"/>
+      <x:c r="C1" s="48" t="s"/>
+      <x:c r="D1" s="48" t="s"/>
+      <x:c r="E1" s="48" t="s"/>
+      <x:c r="F1" s="48" t="s"/>
+      <x:c r="G1" s="48" t="s"/>
+      <x:c r="H1" s="48" t="s"/>
+      <x:c r="I1" s="48" t="s"/>
+      <x:c r="J1" s="48" t="s"/>
     </x:row>
     <x:row r="2" spans="1:10" customFormat="1" ht="12.75" customHeight="1">
-      <x:c r="A2" s="48" t="s"/>
-      <x:c r="B2" s="54" t="s"/>
-      <x:c r="C2" s="54" t="s"/>
-      <x:c r="D2" s="54" t="s"/>
-      <x:c r="E2" s="54" t="s"/>
-      <x:c r="F2" s="54" t="s"/>
-      <x:c r="G2" s="54" t="s"/>
-      <x:c r="H2" s="54" t="s"/>
-      <x:c r="I2" s="54" t="s"/>
-      <x:c r="J2" s="48" t="s"/>
+      <x:c r="B2" s="49" t="s"/>
+      <x:c r="C2" s="49" t="s"/>
+      <x:c r="D2" s="49" t="s"/>
+      <x:c r="E2" s="49" t="s"/>
+      <x:c r="F2" s="49" t="s"/>
+      <x:c r="G2" s="49" t="s"/>
+      <x:c r="H2" s="49" t="s"/>
+      <x:c r="I2" s="49" t="s"/>
     </x:row>
     <x:row r="3" spans="1:10" customFormat="1" ht="18" customHeight="1">
-      <x:c r="A3" s="55" t="s"/>
-      <x:c r="B3" s="56" t="s">
+      <x:c r="A3" s="50" t="s"/>
+      <x:c r="B3" s="51" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C3" s="57" t="s">
+      <x:c r="C3" s="52" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D3" s="58" t="s"/>
-      <x:c r="E3" s="58" t="s"/>
-      <x:c r="F3" s="58" t="s"/>
-      <x:c r="G3" s="59" t="s"/>
-      <x:c r="H3" s="59" t="s"/>
-      <x:c r="I3" s="59" t="s"/>
-      <x:c r="J3" s="60" t="s"/>
+      <x:c r="D3" s="53" t="s"/>
+      <x:c r="E3" s="53" t="s"/>
+      <x:c r="F3" s="53" t="s"/>
+      <x:c r="G3" s="54" t="s"/>
+      <x:c r="H3" s="54" t="s"/>
+      <x:c r="I3" s="54" t="s"/>
+      <x:c r="J3" s="55" t="s"/>
     </x:row>
     <x:row r="4" spans="1:10">
-      <x:c r="A4" s="48" t="s"/>
-      <x:c r="B4" s="61" t="s"/>
-      <x:c r="C4" s="48" t="s"/>
-      <x:c r="D4" s="48" t="s"/>
-      <x:c r="E4" s="48" t="s"/>
-      <x:c r="F4" s="48" t="s"/>
-      <x:c r="G4" s="48" t="s"/>
-      <x:c r="H4" s="48" t="s"/>
-      <x:c r="I4" s="48" t="s"/>
-      <x:c r="J4" s="48" t="s"/>
+      <x:c r="B4" s="56" t="s"/>
     </x:row>
     <x:row r="5" spans="1:10">
-      <x:c r="A5" s="48" t="s"/>
-      <x:c r="B5" s="56" t="s">
+      <x:c r="B5" s="51" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="C5" s="48" t="s"/>
-      <x:c r="D5" s="48" t="s"/>
-      <x:c r="E5" s="48" t="s"/>
-      <x:c r="F5" s="48" t="s"/>
-      <x:c r="G5" s="48" t="s"/>
-      <x:c r="H5" s="48" t="s"/>
-      <x:c r="I5" s="48" t="s"/>
     </x:row>
     <x:row r="6" spans="1:10" customFormat="1" ht="12" customHeight="1">
-      <x:c r="A6" s="48" t="s"/>
-      <x:c r="B6" s="62" t="s">
+      <x:c r="B6" s="57" t="s">
         <x:f>"632-1 Third Frydenhoj"&amp;" "&amp;""</x:f>
       </x:c>
-      <x:c r="C6" s="51" t="s"/>
-      <x:c r="D6" s="51" t="s"/>
-      <x:c r="E6" s="51" t="s"/>
-      <x:c r="F6" s="51" t="s"/>
-      <x:c r="G6" s="51" t="s"/>
-      <x:c r="H6" s="63" t="s"/>
-      <x:c r="I6" s="64" t="s"/>
-      <x:c r="J6" s="65" t="s"/>
+      <x:c r="C6" s="58" t="s"/>
+      <x:c r="D6" s="58" t="s"/>
+      <x:c r="E6" s="58" t="s"/>
+      <x:c r="F6" s="58" t="s"/>
+      <x:c r="G6" s="58" t="s"/>
+      <x:c r="H6" s="59" t="s"/>
+      <x:c r="I6" s="60" t="s"/>
+      <x:c r="J6" s="61" t="s"/>
     </x:row>
     <x:row r="7" spans="1:10" customFormat="1" ht="12" customHeight="1">
-      <x:c r="A7" s="48" t="s"/>
-      <x:c r="B7" s="66" t="s"/>
-      <x:c r="C7" s="67" t="s"/>
-      <x:c r="D7" s="67" t="s"/>
-      <x:c r="E7" s="67" t="s"/>
-      <x:c r="F7" s="67" t="s"/>
-      <x:c r="G7" s="67" t="s"/>
-      <x:c r="H7" s="66" t="s"/>
-      <x:c r="I7" s="48" t="s"/>
-      <x:c r="J7" s="48" t="s"/>
+      <x:c r="B7" s="62" t="s"/>
+      <x:c r="C7" s="63" t="s"/>
+      <x:c r="D7" s="63" t="s"/>
+      <x:c r="E7" s="63" t="s"/>
+      <x:c r="F7" s="63" t="s"/>
+      <x:c r="G7" s="63" t="s"/>
+      <x:c r="H7" s="62" t="s"/>
     </x:row>
     <x:row r="8" spans="1:10">
-      <x:c r="A8" s="48" t="s"/>
-      <x:c r="B8" s="56" t="s">
+      <x:c r="B8" s="51" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C8" s="48" t="s"/>
-      <x:c r="D8" s="48" t="s"/>
-      <x:c r="E8" s="56" t="s">
+      <x:c r="E8" s="51" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="F8" s="48" t="s"/>
-      <x:c r="G8" s="56" t="s">
+      <x:c r="G8" s="51" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="H8" s="48" t="s"/>
-      <x:c r="I8" s="56" t="s">
+      <x:c r="I8" s="51" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:10" customFormat="1" ht="12" customHeight="1">
-      <x:c r="A9" s="48" t="s"/>
-      <x:c r="B9" s="68" t="s">
+      <x:c r="B9" s="64" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="C9" s="51" t="s"/>
-      <x:c r="D9" s="51" t="s"/>
-      <x:c r="E9" s="68" t="s">
+      <x:c r="C9" s="58" t="s"/>
+      <x:c r="D9" s="58" t="s"/>
+      <x:c r="E9" s="64" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="F9" s="69" t="s"/>
-      <x:c r="G9" s="68" t="s">
+      <x:c r="F9" s="65" t="s"/>
+      <x:c r="G9" s="64" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="H9" s="69" t="s"/>
-      <x:c r="I9" s="68" t="s">
+      <x:c r="H9" s="65" t="s"/>
+      <x:c r="I9" s="64" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="J9" s="69" t="s"/>
+      <x:c r="J9" s="65" t="s"/>
     </x:row>
     <x:row r="10" spans="1:10" customFormat="1" ht="12" customHeight="1">
-      <x:c r="A10" s="48" t="s"/>
-      <x:c r="B10" s="70" t="s"/>
-      <x:c r="C10" s="70" t="s"/>
-      <x:c r="D10" s="70" t="s"/>
-      <x:c r="E10" s="70" t="s"/>
-      <x:c r="F10" s="70" t="s"/>
-      <x:c r="G10" s="70" t="s"/>
-      <x:c r="H10" s="70" t="s"/>
-      <x:c r="I10" s="70" t="s"/>
-      <x:c r="J10" s="70" t="s"/>
+      <x:c r="B10" s="66" t="s"/>
+      <x:c r="C10" s="66" t="s"/>
+      <x:c r="D10" s="66" t="s"/>
+      <x:c r="E10" s="66" t="s"/>
+      <x:c r="F10" s="66" t="s"/>
+      <x:c r="G10" s="66" t="s"/>
+      <x:c r="H10" s="66" t="s"/>
+      <x:c r="I10" s="66" t="s"/>
+      <x:c r="J10" s="66" t="s"/>
     </x:row>
     <x:row r="11" spans="1:10" customFormat="1" ht="22.5" customHeight="1">
-      <x:c r="A11" s="48" t="s"/>
-      <x:c r="B11" s="71" t="s">
+      <x:c r="B11" s="67" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="C11" s="71" t="s">
+      <x:c r="C11" s="67" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="D11" s="71" t="s">
+      <x:c r="D11" s="67" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="E11" s="71" t="s">
+      <x:c r="E11" s="67" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="F11" s="71" t="s">
+      <x:c r="F11" s="67" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="G11" s="72" t="s">
+      <x:c r="G11" s="68" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="H11" s="72" t="s">
+      <x:c r="H11" s="68" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="I11" s="72" t="s">
+      <x:c r="I11" s="68" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="J11" s="72" t="s">
+      <x:c r="J11" s="68" t="s">
         <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:10">
-      <x:c r="A12" s="48" t="s"/>
-      <x:c r="B12" s="73" t="n">
+      <x:c r="B12" s="69" t="n">
         <x:v>1005</x:v>
       </x:c>
-      <x:c r="C12" s="74">
+      <x:c r="C12" s="70">
         <x:v>32253</x:v>
       </x:c>
-      <x:c r="D12" s="74">
+      <x:c r="D12" s="70">
         <x:v>32163</x:v>
       </x:c>
-      <x:c r="E12" s="75" t="s"/>
-      <x:c r="F12" s="75" t="s"/>
-      <x:c r="G12" s="75" t="s">
+      <x:c r="E12" s="71" t="s"/>
+      <x:c r="F12" s="71" t="s"/>
+      <x:c r="G12" s="71" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="H12" s="76" t="n">
+      <x:c r="H12" s="72" t="n">
         <x:v>4807</x:v>
       </x:c>
-      <x:c r="I12" s="76" t="n">
+      <x:c r="I12" s="72" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J12" s="77" t="n">
+      <x:c r="J12" s="73" t="n">
         <x:v>4807</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:10" customFormat="1" ht="12" customHeight="1">
-      <x:c r="A13" s="48" t="s"/>
-      <x:c r="B13" s="73" t="n">
+      <x:c r="B13" s="69" t="n">
         <x:v>1059</x:v>
       </x:c>
-      <x:c r="C13" s="74">
+      <x:c r="C13" s="70">
         <x:v>32563</x:v>
       </x:c>
-      <x:c r="D13" s="74">
+      <x:c r="D13" s="70">
         <x:v>32564</x:v>
       </x:c>
-      <x:c r="E13" s="75" t="s">
+      <x:c r="E13" s="71" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="F13" s="75" t="s">
+      <x:c r="F13" s="71" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="G13" s="75" t="s">
+      <x:c r="G13" s="71" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="H13" s="76" t="n">
+      <x:c r="H13" s="72" t="n">
         <x:v>2150</x:v>
       </x:c>
-      <x:c r="I13" s="76" t="n">
+      <x:c r="I13" s="72" t="n">
         <x:v>8.5</x:v>
       </x:c>
-      <x:c r="J13" s="77" t="n">
+      <x:c r="J13" s="73" t="n">
         <x:v>2150</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:10" customFormat="1" ht="12" customHeight="1">
-      <x:c r="A14" s="48" t="s"/>
-      <x:c r="B14" s="73" t="n">
+      <x:c r="B14" s="69" t="n">
         <x:v>1072</x:v>
       </x:c>
-      <x:c r="C14" s="74">
+      <x:c r="C14" s="70">
         <x:v>32609</x:v>
       </x:c>
-      <x:c r="D14" s="74">
+      <x:c r="D14" s="70">
         <x:v>32610</x:v>
       </x:c>
-      <x:c r="E14" s="75" t="s"/>
-      <x:c r="F14" s="75" t="s"/>
-      <x:c r="G14" s="75" t="s">
+      <x:c r="E14" s="71" t="s"/>
+      <x:c r="F14" s="71" t="s"/>
+      <x:c r="G14" s="71" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="H14" s="76" t="n">
+      <x:c r="H14" s="72" t="n">
         <x:v>3596</x:v>
       </x:c>
-      <x:c r="I14" s="76" t="n">
+      <x:c r="I14" s="72" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J14" s="77" t="n">
+      <x:c r="J14" s="73" t="n">
         <x:v>3596</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:10" customFormat="1" ht="12" customHeight="1">
-      <x:c r="A15" s="48" t="s"/>
-      <x:c r="B15" s="73" t="n">
+      <x:c r="B15" s="69" t="n">
         <x:v>1080</x:v>
       </x:c>
-      <x:c r="C15" s="74">
+      <x:c r="C15" s="70">
         <x:v>32633</x:v>
       </x:c>
-      <x:c r="D15" s="74">
+      <x:c r="D15" s="70">
         <x:v>32634</x:v>
       </x:c>
-      <x:c r="E15" s="75" t="s"/>
-      <x:c r="F15" s="75" t="s"/>
-      <x:c r="G15" s="75" t="s">
+      <x:c r="E15" s="71" t="s"/>
+      <x:c r="F15" s="71" t="s"/>
+      <x:c r="G15" s="71" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="H15" s="76" t="n">
+      <x:c r="H15" s="72" t="n">
         <x:v>9634</x:v>
       </x:c>
-      <x:c r="I15" s="76" t="n">
+      <x:c r="I15" s="72" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J15" s="77" t="n">
+      <x:c r="J15" s="73" t="n">
         <x:v>9634</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:10" customFormat="1" ht="12" customHeight="1">
-      <x:c r="A16" s="48" t="s"/>
-      <x:c r="B16" s="73" t="n">
+      <x:c r="B16" s="69" t="n">
         <x:v>1105</x:v>
       </x:c>
-      <x:c r="C16" s="74">
+      <x:c r="C16" s="70">
         <x:v>33806</x:v>
       </x:c>
-      <x:c r="D16" s="74">
+      <x:c r="D16" s="70">
         <x:v>33806</x:v>
       </x:c>
-      <x:c r="E16" s="75" t="s"/>
-      <x:c r="F16" s="75" t="s"/>
-      <x:c r="G16" s="75" t="s">
+      <x:c r="E16" s="71" t="s"/>
+      <x:c r="F16" s="71" t="s"/>
+      <x:c r="G16" s="71" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="H16" s="76" t="n">
+      <x:c r="H16" s="72" t="n">
         <x:v>31219.95</x:v>
       </x:c>
-      <x:c r="I16" s="76" t="n">
+      <x:c r="I16" s="72" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J16" s="77" t="n">
+      <x:c r="J16" s="73" t="n">
         <x:v>31219.95</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:10">
-      <x:c r="A17" s="48" t="s"/>
-      <x:c r="B17" s="73" t="n">
+      <x:c r="B17" s="69" t="n">
         <x:v>1180</x:v>
       </x:c>
-      <x:c r="C17" s="74">
+      <x:c r="C17" s="70">
         <x:v>34552</x:v>
       </x:c>
-      <x:c r="D17" s="74">
+      <x:c r="D17" s="70">
         <x:v>34552</x:v>
       </x:c>
-      <x:c r="E17" s="75" t="s"/>
-      <x:c r="F17" s="75" t="s"/>
-      <x:c r="G17" s="75" t="s">
+      <x:c r="E17" s="71" t="s"/>
+      <x:c r="F17" s="71" t="s"/>
+      <x:c r="G17" s="71" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="H17" s="76" t="n">
+      <x:c r="H17" s="72" t="n">
         <x:v>3640</x:v>
       </x:c>
-      <x:c r="I17" s="76" t="n">
+      <x:c r="I17" s="72" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J17" s="77" t="n">
+      <x:c r="J17" s="73" t="n">
         <x:v>3640</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:10">
-      <x:c r="A18" s="48" t="s"/>
-      <x:c r="B18" s="73" t="n">
+      <x:c r="B18" s="69" t="n">
         <x:v>1266</x:v>
       </x:c>
-      <x:c r="C18" s="74">
+      <x:c r="C18" s="70">
         <x:v>34683</x:v>
       </x:c>
-      <x:c r="D18" s="74">
+      <x:c r="D18" s="70">
         <x:v>34683</x:v>
       </x:c>
-      <x:c r="E18" s="75" t="s"/>
-      <x:c r="F18" s="75" t="s"/>
-      <x:c r="G18" s="75" t="s">
+      <x:c r="E18" s="71" t="s"/>
+      <x:c r="F18" s="71" t="s"/>
+      <x:c r="G18" s="71" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="H18" s="76" t="n">
+      <x:c r="H18" s="72" t="n">
         <x:v>6935</x:v>
       </x:c>
-      <x:c r="I18" s="76" t="n">
+      <x:c r="I18" s="72" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J18" s="77" t="n">
+      <x:c r="J18" s="73" t="n">
         <x:v>6935</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:10">
-      <x:c r="A19" s="48" t="s"/>
-      <x:c r="B19" s="73" t="n">
+      <x:c r="B19" s="69" t="n">
         <x:v>1280</x:v>
       </x:c>
-      <x:c r="C19" s="74">
+      <x:c r="C19" s="70">
         <x:v>34694</x:v>
       </x:c>
-      <x:c r="D19" s="74">
+      <x:c r="D19" s="70">
         <x:v>34694</x:v>
       </x:c>
-      <x:c r="E19" s="75" t="s"/>
-      <x:c r="F19" s="75" t="s"/>
-      <x:c r="G19" s="75" t="s">
+      <x:c r="E19" s="71" t="s"/>
+      <x:c r="F19" s="71" t="s"/>
+      <x:c r="G19" s="71" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="H19" s="76" t="n">
+      <x:c r="H19" s="72" t="n">
         <x:v>4317.75</x:v>
       </x:c>
-      <x:c r="I19" s="76" t="n">
+      <x:c r="I19" s="72" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J19" s="77" t="n">
+      <x:c r="J19" s="73" t="n">
         <x:v>4317.75</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10">
-      <x:c r="A20" s="48" t="s"/>
-      <x:c r="B20" s="73" t="n">
+      <x:c r="B20" s="69" t="n">
         <x:v>1305</x:v>
       </x:c>
-      <x:c r="C20" s="74">
+      <x:c r="C20" s="70">
         <x:v>34719</x:v>
       </x:c>
-      <x:c r="D20" s="74">
+      <x:c r="D20" s="70">
         <x:v>34719</x:v>
       </x:c>
-      <x:c r="E20" s="75" t="s"/>
-      <x:c r="F20" s="75" t="s"/>
-      <x:c r="G20" s="75" t="s">
+      <x:c r="E20" s="71" t="s"/>
+      <x:c r="F20" s="71" t="s"/>
+      <x:c r="G20" s="71" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="H20" s="76" t="n">
+      <x:c r="H20" s="72" t="n">
         <x:v>3065</x:v>
       </x:c>
-      <x:c r="I20" s="76" t="n">
+      <x:c r="I20" s="72" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J20" s="77" t="n">
+      <x:c r="J20" s="73" t="n">
         <x:v>3065</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:10">
-      <x:c r="A21" s="48" t="s"/>
-      <x:c r="B21" s="83" t="s"/>
-      <x:c r="C21" s="83" t="s"/>
-      <x:c r="D21" s="83" t="s"/>
-      <x:c r="E21" s="83" t="s"/>
-      <x:c r="F21" s="83" t="s"/>
-      <x:c r="G21" s="83" t="s"/>
-      <x:c r="H21" s="83" t="s"/>
-      <x:c r="I21" s="83" t="s">
+      <x:c r="B21" s="74" t="s"/>
+      <x:c r="C21" s="74" t="s"/>
+      <x:c r="D21" s="74" t="s"/>
+      <x:c r="E21" s="74" t="s"/>
+      <x:c r="F21" s="74" t="s"/>
+      <x:c r="G21" s="74" t="s"/>
+      <x:c r="H21" s="74" t="s"/>
+      <x:c r="I21" s="74" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="J21" s="82" t="n">
+      <x:c r="J21" s="75" t="n">
         <x:v>69364.7</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:10">
-      <x:c r="A22" s="48" t="s"/>
-      <x:c r="B22" s="70" t="s"/>
-      <x:c r="C22" s="70" t="s"/>
-      <x:c r="D22" s="70" t="s"/>
-      <x:c r="E22" s="70" t="s"/>
-      <x:c r="F22" s="70" t="s"/>
-      <x:c r="G22" s="70" t="s"/>
-      <x:c r="H22" s="70" t="s"/>
-      <x:c r="I22" s="81" t="s"/>
-      <x:c r="J22" s="80" t="s"/>
+      <x:c r="B22" s="66" t="s"/>
+      <x:c r="C22" s="66" t="s"/>
+      <x:c r="D22" s="66" t="s"/>
+      <x:c r="E22" s="66" t="s"/>
+      <x:c r="F22" s="66" t="s"/>
+      <x:c r="G22" s="66" t="s"/>
+      <x:c r="H22" s="66" t="s"/>
+      <x:c r="I22" s="76" t="s"/>
+      <x:c r="J22" s="77" t="s"/>
     </x:row>
     <x:row r="23" spans="1:10">
-      <x:c r="A23" s="48" t="s"/>
-      <x:c r="B23" s="56" t="s">
+      <x:c r="B23" s="51" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="E23" s="56" t="s">
+      <x:c r="E23" s="51" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="I23" s="79" t="s">
+      <x:c r="I23" s="78" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="J23" s="78">
+      <x:c r="J23" s="79">
         <x:f>C3</x:f>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:10">
-      <x:c r="A24" s="48" t="s"/>
-      <x:c r="B24" s="50" t="s">
+      <x:c r="B24" s="80" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="C24" s="51" t="s"/>
-      <x:c r="D24" s="51" t="s"/>
-      <x:c r="E24" s="50" t="s">
+      <x:c r="C24" s="58" t="s"/>
+      <x:c r="D24" s="58" t="s"/>
+      <x:c r="E24" s="80" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="F24" s="49" t="s"/>
-      <x:c r="G24" s="48" t="s"/>
-      <x:c r="J24" s="47" t="s"/>
+      <x:c r="F24" s="81" t="s"/>
     </x:row>
   </x:sheetData>
-  <x:sheetProtection password="AA5F" sheet="1"/>
+  <x:sheetProtection password="EBE5" sheet="1"/>
   <x:autoFilter ref="B11:J11"/>
   <x:phoneticPr fontId="0" type="noConversion"/>
   <x:conditionalFormatting sqref="E12:G20">

--- a/tests/Gauges/tLists3_options.xlsx
+++ b/tests/Gauges/tLists3_options.xlsx
@@ -12,14 +12,14 @@
   <x:definedNames>
     <x:definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$11:$J$11</x:definedName>
     <x:definedName name="Orders">Sheet1!$A$12:$J$21</x:definedName>
-    <x:definedName name="Orders_tpl">Sheet1!$A$12:$J$13</x:definedName>
+    <x:definedName name="Orders_tpl">Sheet1!$A$12:$J$21</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="125725"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <x:si>
     <x:t>Options in list range</x:t>
   </x:si>
@@ -52,6 +52,9 @@
   </x:si>
   <x:si>
     <x:t>US Virgin Islands</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00820</x:t>
   </x:si>
   <x:si>
     <x:t>Order No</x:t>
@@ -313,6 +316,51 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="0" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="11" fillId="2" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="3" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="0" hidden="0"/>
     </x:xf>
@@ -328,51 +376,6 @@
     <x:xf numFmtId="4" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="11" fillId="2" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="4" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="0" hidden="0"/>
     </x:xf>
@@ -380,13 +383,13 @@
       <x:protection locked="0" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="4" fontId="8" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="4" fontId="2" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="0" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="4" fontId="8" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="4" fontId="2" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
   <x:cellXfs count="84">
@@ -509,6 +512,102 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="0" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="2" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="0" hidden="0"/>
@@ -529,102 +628,6 @@
       <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="2" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="0" hidden="0"/>
@@ -638,16 +641,16 @@
       <x:protection locked="0" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="4" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="0" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="4" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="0" hidden="0"/>
     </x:xf>
   </x:cellXfs>
   <x:cellStyles count="1">
@@ -1131,8 +1134,8 @@
   <x:sheetViews>
     <x:sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <x:pane xSplit="0" ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozenSplit"/>
-      <x:selection activeCell="A13" sqref="A13"/>
-      <x:selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <x:selection activeCell="A13" sqref="A13 A21"/>
+      <x:selection pane="bottomLeft" activeCell="A13" sqref="A13 A21"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="11.25"/>
@@ -1150,49 +1153,49 @@
   <x:sheetData>
     <x:row r="1" spans="1:10" customFormat="1" ht="51" customHeight="1">
       <x:c r="A1" s="48" t="s"/>
-      <x:c r="B1" s="54" t="s">
+      <x:c r="B1" s="52" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C1" s="55" t="s"/>
-      <x:c r="D1" s="55" t="s"/>
-      <x:c r="E1" s="55" t="s"/>
-      <x:c r="F1" s="55" t="s"/>
-      <x:c r="G1" s="55" t="s"/>
-      <x:c r="H1" s="55" t="s"/>
-      <x:c r="I1" s="55" t="s"/>
-      <x:c r="J1" s="55" t="s"/>
+      <x:c r="C1" s="53" t="s"/>
+      <x:c r="D1" s="53" t="s"/>
+      <x:c r="E1" s="53" t="s"/>
+      <x:c r="F1" s="53" t="s"/>
+      <x:c r="G1" s="53" t="s"/>
+      <x:c r="H1" s="53" t="s"/>
+      <x:c r="I1" s="53" t="s"/>
+      <x:c r="J1" s="53" t="s"/>
     </x:row>
     <x:row r="2" spans="1:10" customFormat="1" ht="12.75" customHeight="1">
       <x:c r="A2" s="48" t="s"/>
-      <x:c r="B2" s="56" t="s"/>
-      <x:c r="C2" s="56" t="s"/>
-      <x:c r="D2" s="56" t="s"/>
-      <x:c r="E2" s="56" t="s"/>
-      <x:c r="F2" s="56" t="s"/>
-      <x:c r="G2" s="56" t="s"/>
-      <x:c r="H2" s="56" t="s"/>
-      <x:c r="I2" s="56" t="s"/>
+      <x:c r="B2" s="54" t="s"/>
+      <x:c r="C2" s="54" t="s"/>
+      <x:c r="D2" s="54" t="s"/>
+      <x:c r="E2" s="54" t="s"/>
+      <x:c r="F2" s="54" t="s"/>
+      <x:c r="G2" s="54" t="s"/>
+      <x:c r="H2" s="54" t="s"/>
+      <x:c r="I2" s="54" t="s"/>
       <x:c r="J2" s="48" t="s"/>
     </x:row>
     <x:row r="3" spans="1:10" customFormat="1" ht="18" customHeight="1">
-      <x:c r="A3" s="57" t="s"/>
-      <x:c r="B3" s="58" t="s">
+      <x:c r="A3" s="55" t="s"/>
+      <x:c r="B3" s="56" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C3" s="59" t="s">
+      <x:c r="C3" s="57" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D3" s="60" t="s"/>
-      <x:c r="E3" s="60" t="s"/>
-      <x:c r="F3" s="60" t="s"/>
-      <x:c r="G3" s="61" t="s"/>
-      <x:c r="H3" s="61" t="s"/>
-      <x:c r="I3" s="61" t="s"/>
-      <x:c r="J3" s="62" t="s"/>
+      <x:c r="D3" s="58" t="s"/>
+      <x:c r="E3" s="58" t="s"/>
+      <x:c r="F3" s="58" t="s"/>
+      <x:c r="G3" s="59" t="s"/>
+      <x:c r="H3" s="59" t="s"/>
+      <x:c r="I3" s="59" t="s"/>
+      <x:c r="J3" s="60" t="s"/>
     </x:row>
     <x:row r="4" spans="1:10">
       <x:c r="A4" s="48" t="s"/>
-      <x:c r="B4" s="63" t="s"/>
+      <x:c r="B4" s="61" t="s"/>
       <x:c r="C4" s="48" t="s"/>
       <x:c r="D4" s="48" t="s"/>
       <x:c r="E4" s="48" t="s"/>
@@ -1204,7 +1207,7 @@
     </x:row>
     <x:row r="5" spans="1:10">
       <x:c r="A5" s="48" t="s"/>
-      <x:c r="B5" s="58" t="s">
+      <x:c r="B5" s="56" t="s">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C5" s="48" t="s"/>
@@ -1217,387 +1220,387 @@
     </x:row>
     <x:row r="6" spans="1:10" customFormat="1" ht="12" customHeight="1">
       <x:c r="A6" s="48" t="s"/>
-      <x:c r="B6" s="64" t="s">
+      <x:c r="B6" s="62" t="s">
         <x:f>"632-1 Third Frydenhoj"&amp;" "&amp;""</x:f>
       </x:c>
-      <x:c r="C6" s="65" t="s"/>
-      <x:c r="D6" s="65" t="s"/>
-      <x:c r="E6" s="65" t="s"/>
-      <x:c r="F6" s="65" t="s"/>
-      <x:c r="G6" s="65" t="s"/>
-      <x:c r="H6" s="66" t="s"/>
-      <x:c r="I6" s="67" t="s"/>
-      <x:c r="J6" s="68" t="s"/>
+      <x:c r="C6" s="51" t="s"/>
+      <x:c r="D6" s="51" t="s"/>
+      <x:c r="E6" s="51" t="s"/>
+      <x:c r="F6" s="51" t="s"/>
+      <x:c r="G6" s="51" t="s"/>
+      <x:c r="H6" s="63" t="s"/>
+      <x:c r="I6" s="64" t="s"/>
+      <x:c r="J6" s="65" t="s"/>
     </x:row>
     <x:row r="7" spans="1:10" customFormat="1" ht="12" customHeight="1">
       <x:c r="A7" s="48" t="s"/>
-      <x:c r="B7" s="69" t="s"/>
-      <x:c r="C7" s="70" t="s"/>
-      <x:c r="D7" s="70" t="s"/>
-      <x:c r="E7" s="70" t="s"/>
-      <x:c r="F7" s="70" t="s"/>
-      <x:c r="G7" s="70" t="s"/>
-      <x:c r="H7" s="69" t="s"/>
+      <x:c r="B7" s="66" t="s"/>
+      <x:c r="C7" s="67" t="s"/>
+      <x:c r="D7" s="67" t="s"/>
+      <x:c r="E7" s="67" t="s"/>
+      <x:c r="F7" s="67" t="s"/>
+      <x:c r="G7" s="67" t="s"/>
+      <x:c r="H7" s="66" t="s"/>
       <x:c r="I7" s="48" t="s"/>
       <x:c r="J7" s="48" t="s"/>
     </x:row>
     <x:row r="8" spans="1:10">
       <x:c r="A8" s="48" t="s"/>
-      <x:c r="B8" s="58" t="s">
+      <x:c r="B8" s="56" t="s">
         <x:v>4</x:v>
       </x:c>
       <x:c r="C8" s="48" t="s"/>
       <x:c r="D8" s="48" t="s"/>
-      <x:c r="E8" s="58" t="s">
+      <x:c r="E8" s="56" t="s">
         <x:v>5</x:v>
       </x:c>
       <x:c r="F8" s="48" t="s"/>
-      <x:c r="G8" s="58" t="s">
+      <x:c r="G8" s="56" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="H8" s="48" t="s"/>
-      <x:c r="I8" s="58" t="s">
+      <x:c r="I8" s="56" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:10" customFormat="1" ht="12" customHeight="1">
       <x:c r="A9" s="48" t="s"/>
-      <x:c r="B9" s="71" t="s">
+      <x:c r="B9" s="68" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="C9" s="65" t="s"/>
-      <x:c r="D9" s="65" t="s"/>
-      <x:c r="E9" s="71" t="s">
+      <x:c r="C9" s="51" t="s"/>
+      <x:c r="D9" s="51" t="s"/>
+      <x:c r="E9" s="68" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="F9" s="72" t="s"/>
-      <x:c r="G9" s="71" t="s">
+      <x:c r="F9" s="69" t="s"/>
+      <x:c r="G9" s="68" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="H9" s="72" t="s"/>
-      <x:c r="I9" s="71" t="n">
-        <x:v>820</x:v>
-      </x:c>
-      <x:c r="J9" s="72" t="s"/>
+      <x:c r="H9" s="69" t="s"/>
+      <x:c r="I9" s="68" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="J9" s="69" t="s"/>
     </x:row>
     <x:row r="10" spans="1:10" customFormat="1" ht="12" customHeight="1">
       <x:c r="A10" s="48" t="s"/>
-      <x:c r="B10" s="73" t="s"/>
-      <x:c r="C10" s="73" t="s"/>
-      <x:c r="D10" s="73" t="s"/>
-      <x:c r="E10" s="73" t="s"/>
-      <x:c r="F10" s="73" t="s"/>
-      <x:c r="G10" s="73" t="s"/>
-      <x:c r="H10" s="73" t="s"/>
-      <x:c r="I10" s="73" t="s"/>
-      <x:c r="J10" s="73" t="s"/>
+      <x:c r="B10" s="70" t="s"/>
+      <x:c r="C10" s="70" t="s"/>
+      <x:c r="D10" s="70" t="s"/>
+      <x:c r="E10" s="70" t="s"/>
+      <x:c r="F10" s="70" t="s"/>
+      <x:c r="G10" s="70" t="s"/>
+      <x:c r="H10" s="70" t="s"/>
+      <x:c r="I10" s="70" t="s"/>
+      <x:c r="J10" s="70" t="s"/>
     </x:row>
     <x:row r="11" spans="1:10" customFormat="1" ht="22.5" customHeight="1">
       <x:c r="A11" s="48" t="s"/>
-      <x:c r="B11" s="74" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C11" s="74" t="s">
+      <x:c r="B11" s="71" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="D11" s="74" t="s">
+      <x:c r="C11" s="71" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="E11" s="74" t="s">
+      <x:c r="D11" s="71" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="F11" s="74" t="s">
+      <x:c r="E11" s="71" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="G11" s="75" t="s">
+      <x:c r="F11" s="71" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="H11" s="75" t="s">
+      <x:c r="G11" s="72" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="I11" s="75" t="s">
+      <x:c r="H11" s="72" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="J11" s="75" t="s">
+      <x:c r="I11" s="72" t="s">
         <x:v>19</x:v>
+      </x:c>
+      <x:c r="J11" s="72" t="s">
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:10">
       <x:c r="A12" s="48" t="s"/>
-      <x:c r="B12" s="49" t="n">
+      <x:c r="B12" s="73" t="n">
         <x:v>1005</x:v>
       </x:c>
-      <x:c r="C12" s="50">
+      <x:c r="C12" s="74">
         <x:v>32253</x:v>
       </x:c>
-      <x:c r="D12" s="50">
+      <x:c r="D12" s="74">
         <x:v>32163</x:v>
       </x:c>
-      <x:c r="E12" s="51" t="s"/>
-      <x:c r="F12" s="51" t="s"/>
-      <x:c r="G12" s="51" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H12" s="52" t="n">
+      <x:c r="E12" s="75" t="s"/>
+      <x:c r="F12" s="75" t="s"/>
+      <x:c r="G12" s="75" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H12" s="76" t="n">
         <x:v>4807</x:v>
       </x:c>
-      <x:c r="I12" s="52" t="n">
+      <x:c r="I12" s="76" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J12" s="53" t="n">
+      <x:c r="J12" s="77" t="n">
         <x:v>4807</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:10" customFormat="1" ht="12" customHeight="1">
       <x:c r="A13" s="48" t="s"/>
-      <x:c r="B13" s="49" t="n">
+      <x:c r="B13" s="73" t="n">
         <x:v>1059</x:v>
       </x:c>
-      <x:c r="C13" s="50">
+      <x:c r="C13" s="74">
         <x:v>32563</x:v>
       </x:c>
-      <x:c r="D13" s="50">
+      <x:c r="D13" s="74">
         <x:v>32564</x:v>
       </x:c>
-      <x:c r="E13" s="51" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="F13" s="51" t="s">
+      <x:c r="E13" s="75" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="G13" s="51" t="s">
+      <x:c r="F13" s="75" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="H13" s="52" t="n">
+      <x:c r="G13" s="75" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H13" s="76" t="n">
         <x:v>2150</x:v>
       </x:c>
-      <x:c r="I13" s="52" t="n">
+      <x:c r="I13" s="76" t="n">
         <x:v>8.5</x:v>
       </x:c>
-      <x:c r="J13" s="53" t="n">
+      <x:c r="J13" s="77" t="n">
         <x:v>2150</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:10" customFormat="1" ht="12" customHeight="1">
       <x:c r="A14" s="48" t="s"/>
-      <x:c r="B14" s="49" t="n">
+      <x:c r="B14" s="73" t="n">
         <x:v>1072</x:v>
       </x:c>
-      <x:c r="C14" s="50">
+      <x:c r="C14" s="74">
         <x:v>32609</x:v>
       </x:c>
-      <x:c r="D14" s="50">
+      <x:c r="D14" s="74">
         <x:v>32610</x:v>
       </x:c>
-      <x:c r="E14" s="51" t="s"/>
-      <x:c r="F14" s="51" t="s"/>
-      <x:c r="G14" s="51" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="H14" s="52" t="n">
+      <x:c r="E14" s="75" t="s"/>
+      <x:c r="F14" s="75" t="s"/>
+      <x:c r="G14" s="75" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H14" s="76" t="n">
         <x:v>3596</x:v>
       </x:c>
-      <x:c r="I14" s="52" t="n">
+      <x:c r="I14" s="76" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J14" s="53" t="n">
+      <x:c r="J14" s="77" t="n">
         <x:v>3596</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:10" customFormat="1" ht="12" customHeight="1">
       <x:c r="A15" s="48" t="s"/>
-      <x:c r="B15" s="49" t="n">
+      <x:c r="B15" s="73" t="n">
         <x:v>1080</x:v>
       </x:c>
-      <x:c r="C15" s="50">
+      <x:c r="C15" s="74">
         <x:v>32633</x:v>
       </x:c>
-      <x:c r="D15" s="50">
+      <x:c r="D15" s="74">
         <x:v>32634</x:v>
       </x:c>
-      <x:c r="E15" s="51" t="s"/>
-      <x:c r="F15" s="51" t="s"/>
-      <x:c r="G15" s="51" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="H15" s="52" t="n">
+      <x:c r="E15" s="75" t="s"/>
+      <x:c r="F15" s="75" t="s"/>
+      <x:c r="G15" s="75" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="H15" s="76" t="n">
         <x:v>9634</x:v>
       </x:c>
-      <x:c r="I15" s="52" t="n">
+      <x:c r="I15" s="76" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J15" s="53" t="n">
+      <x:c r="J15" s="77" t="n">
         <x:v>9634</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:10" customFormat="1" ht="12" customHeight="1">
       <x:c r="A16" s="48" t="s"/>
-      <x:c r="B16" s="49" t="n">
+      <x:c r="B16" s="73" t="n">
         <x:v>1105</x:v>
       </x:c>
-      <x:c r="C16" s="50">
+      <x:c r="C16" s="74">
         <x:v>33806</x:v>
       </x:c>
-      <x:c r="D16" s="50">
+      <x:c r="D16" s="74">
         <x:v>33806</x:v>
       </x:c>
-      <x:c r="E16" s="51" t="s"/>
-      <x:c r="F16" s="51" t="s"/>
-      <x:c r="G16" s="51" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H16" s="52" t="n">
+      <x:c r="E16" s="75" t="s"/>
+      <x:c r="F16" s="75" t="s"/>
+      <x:c r="G16" s="75" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H16" s="76" t="n">
         <x:v>31219.95</x:v>
       </x:c>
-      <x:c r="I16" s="52" t="n">
+      <x:c r="I16" s="76" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J16" s="53" t="n">
+      <x:c r="J16" s="77" t="n">
         <x:v>31219.95</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:10">
       <x:c r="A17" s="48" t="s"/>
-      <x:c r="B17" s="49" t="n">
+      <x:c r="B17" s="73" t="n">
         <x:v>1180</x:v>
       </x:c>
-      <x:c r="C17" s="50">
+      <x:c r="C17" s="74">
         <x:v>34552</x:v>
       </x:c>
-      <x:c r="D17" s="50">
+      <x:c r="D17" s="74">
         <x:v>34552</x:v>
       </x:c>
-      <x:c r="E17" s="51" t="s"/>
-      <x:c r="F17" s="51" t="s"/>
-      <x:c r="G17" s="51" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="H17" s="52" t="n">
+      <x:c r="E17" s="75" t="s"/>
+      <x:c r="F17" s="75" t="s"/>
+      <x:c r="G17" s="75" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="H17" s="76" t="n">
         <x:v>3640</x:v>
       </x:c>
-      <x:c r="I17" s="52" t="n">
+      <x:c r="I17" s="76" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J17" s="53" t="n">
+      <x:c r="J17" s="77" t="n">
         <x:v>3640</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:10">
       <x:c r="A18" s="48" t="s"/>
-      <x:c r="B18" s="49" t="n">
+      <x:c r="B18" s="73" t="n">
         <x:v>1266</x:v>
       </x:c>
-      <x:c r="C18" s="50">
+      <x:c r="C18" s="74">
         <x:v>34683</x:v>
       </x:c>
-      <x:c r="D18" s="50">
+      <x:c r="D18" s="74">
         <x:v>34683</x:v>
       </x:c>
-      <x:c r="E18" s="51" t="s"/>
-      <x:c r="F18" s="51" t="s"/>
-      <x:c r="G18" s="51" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H18" s="52" t="n">
+      <x:c r="E18" s="75" t="s"/>
+      <x:c r="F18" s="75" t="s"/>
+      <x:c r="G18" s="75" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H18" s="76" t="n">
         <x:v>6935</x:v>
       </x:c>
-      <x:c r="I18" s="52" t="n">
+      <x:c r="I18" s="76" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J18" s="53" t="n">
+      <x:c r="J18" s="77" t="n">
         <x:v>6935</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:10">
       <x:c r="A19" s="48" t="s"/>
-      <x:c r="B19" s="49" t="n">
+      <x:c r="B19" s="73" t="n">
         <x:v>1280</x:v>
       </x:c>
-      <x:c r="C19" s="50">
+      <x:c r="C19" s="74">
         <x:v>34694</x:v>
       </x:c>
-      <x:c r="D19" s="50">
+      <x:c r="D19" s="74">
         <x:v>34694</x:v>
       </x:c>
-      <x:c r="E19" s="51" t="s"/>
-      <x:c r="F19" s="51" t="s"/>
-      <x:c r="G19" s="51" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="H19" s="52" t="n">
+      <x:c r="E19" s="75" t="s"/>
+      <x:c r="F19" s="75" t="s"/>
+      <x:c r="G19" s="75" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="H19" s="76" t="n">
         <x:v>4317.75</x:v>
       </x:c>
-      <x:c r="I19" s="52" t="n">
+      <x:c r="I19" s="76" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J19" s="53" t="n">
+      <x:c r="J19" s="77" t="n">
         <x:v>4317.75</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10">
       <x:c r="A20" s="48" t="s"/>
-      <x:c r="B20" s="49" t="n">
+      <x:c r="B20" s="73" t="n">
         <x:v>1305</x:v>
       </x:c>
-      <x:c r="C20" s="50">
+      <x:c r="C20" s="74">
         <x:v>34719</x:v>
       </x:c>
-      <x:c r="D20" s="50">
+      <x:c r="D20" s="74">
         <x:v>34719</x:v>
       </x:c>
-      <x:c r="E20" s="51" t="s"/>
-      <x:c r="F20" s="51" t="s"/>
-      <x:c r="G20" s="51" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H20" s="52" t="n">
+      <x:c r="E20" s="75" t="s"/>
+      <x:c r="F20" s="75" t="s"/>
+      <x:c r="G20" s="75" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H20" s="76" t="n">
         <x:v>3065</x:v>
       </x:c>
-      <x:c r="I20" s="52" t="n">
+      <x:c r="I20" s="76" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J20" s="53" t="n">
+      <x:c r="J20" s="77" t="n">
         <x:v>3065</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:10">
       <x:c r="A21" s="48" t="s"/>
-      <x:c r="B21" s="82" t="s"/>
-      <x:c r="C21" s="82" t="s"/>
-      <x:c r="D21" s="82" t="s"/>
-      <x:c r="E21" s="82" t="s"/>
-      <x:c r="F21" s="82" t="s"/>
-      <x:c r="G21" s="82" t="s"/>
-      <x:c r="H21" s="82" t="s"/>
-      <x:c r="I21" s="82" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="J21" s="83" t="n">
+      <x:c r="B21" s="83" t="s"/>
+      <x:c r="C21" s="83" t="s"/>
+      <x:c r="D21" s="83" t="s"/>
+      <x:c r="E21" s="83" t="s"/>
+      <x:c r="F21" s="83" t="s"/>
+      <x:c r="G21" s="83" t="s"/>
+      <x:c r="H21" s="83" t="s"/>
+      <x:c r="I21" s="83" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="J21" s="82" t="n">
         <x:v>69364.7</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:10">
       <x:c r="A22" s="48" t="s"/>
-      <x:c r="B22" s="73" t="s"/>
-      <x:c r="C22" s="73" t="s"/>
-      <x:c r="D22" s="73" t="s"/>
-      <x:c r="E22" s="73" t="s"/>
-      <x:c r="F22" s="73" t="s"/>
-      <x:c r="G22" s="73" t="s"/>
-      <x:c r="H22" s="73" t="s"/>
+      <x:c r="B22" s="70" t="s"/>
+      <x:c r="C22" s="70" t="s"/>
+      <x:c r="D22" s="70" t="s"/>
+      <x:c r="E22" s="70" t="s"/>
+      <x:c r="F22" s="70" t="s"/>
+      <x:c r="G22" s="70" t="s"/>
+      <x:c r="H22" s="70" t="s"/>
       <x:c r="I22" s="81" t="s"/>
       <x:c r="J22" s="80" t="s"/>
     </x:row>
     <x:row r="23" spans="1:10">
       <x:c r="A23" s="48" t="s"/>
-      <x:c r="B23" s="58" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="E23" s="58" t="s">
+      <x:c r="B23" s="56" t="s">
         <x:v>27</x:v>
       </x:c>
+      <x:c r="E23" s="56" t="s">
+        <x:v>28</x:v>
+      </x:c>
       <x:c r="I23" s="79" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="J23" s="78">
         <x:f>C3</x:f>
@@ -1605,20 +1608,20 @@
     </x:row>
     <x:row r="24" spans="1:10">
       <x:c r="A24" s="48" t="s"/>
-      <x:c r="B24" s="77" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="C24" s="65" t="s"/>
-      <x:c r="D24" s="65" t="s"/>
-      <x:c r="E24" s="77" t="s">
+      <x:c r="B24" s="50" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="F24" s="76" t="s"/>
+      <x:c r="C24" s="51" t="s"/>
+      <x:c r="D24" s="51" t="s"/>
+      <x:c r="E24" s="50" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F24" s="49" t="s"/>
       <x:c r="G24" s="48" t="s"/>
       <x:c r="J24" s="47" t="s"/>
     </x:row>
   </x:sheetData>
-  <x:sheetProtection password="81D3" sheet="1"/>
+  <x:sheetProtection password="AA5F" sheet="1"/>
   <x:autoFilter ref="B11:J11"/>
   <x:phoneticPr fontId="0" type="noConversion"/>
   <x:conditionalFormatting sqref="E12:G20">
